--- a/Patrick_pt2/result/filtered_kmean/filtered_ht2.xlsx
+++ b/Patrick_pt2/result/filtered_kmean/filtered_ht2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>12081</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -573,24 +573,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21684</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21684</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>2219</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>27201</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>27201</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>4481</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7781</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7781</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8110</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8168</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8168</t>
+          <t>8313</t>
         </is>
       </c>
     </row>
@@ -938,14 +938,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8313</t>
+          <t>8412</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8412</t>
+          <t>8415</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8415</t>
+          <t>8583</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8583</t>
+          <t>906</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -986,113 +986,101 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>9114</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9394</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9114</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9394</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9552</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>E2259</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9552</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>E2259</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Jati</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Kenanga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jati</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kenanga</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T317</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T408</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T317</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T666</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>T408</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>T666</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
         <is>
           <t>-</t>
         </is>
